--- a/xlsx/国立卫生研究院 (美国)_intext.xlsx
+++ b/xlsx/国立卫生研究院 (美国)_intext.xlsx
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%A1%9B%E7%94%9F%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>國家衛生研究院</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_国立卫生研究院 (美国)</t>
+    <t>国家卫生研究院</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_国立卫生研究院 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬里蘭州</t>
+    <t>马里兰州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%A1%9E%E6%96%AF%E9%81%94_(%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E)</t>
   </si>
   <si>
-    <t>貝塞斯達 (馬里蘭州)</t>
+    <t>贝塞斯达 (马里兰州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%9B%E7%94%9F%E5%8F%8A%E4%BA%BA%E9%A1%9E%E6%9C%8D%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>美國衛生及人類服務部</t>
+    <t>美国卫生及人类服务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E7%99%8C%E7%97%87%E7%A0%94%E7%A9%B6%E6%89%80</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國聯邦政府</t>
+    <t>美国联邦政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%8C%BB%E5%AD%A6</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8B%B0</t>
   </si>
   <si>
-    <t>鋰</t>
+    <t>锂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BA%81%E9%AC%B1%E7%97%87</t>
   </si>
   <si>
-    <t>躁鬱症</t>
+    <t>躁郁症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%9D%E7%82%8E</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E6%84%9F%E5%97%9C%E8%A1%80%E6%A1%BF%E8%8F%8C</t>
   </si>
   <si>
-    <t>流感嗜血桿菌</t>
+    <t>流感嗜血杆菌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%B9%B3%E5%A4%B4%E7%98%A4%E7%97%85%E6%AF%92</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%A1%9B%E7%94%9F%E7%A0%94%E7%A9%B6%E9%99%A2_(%E5%8F%B0%E7%81%A3)</t>
   </si>
   <si>
-    <t>國家衛生研究院 (台灣)</t>
+    <t>国家卫生研究院 (台湾)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%85%AC%E5%A0%B1</t>
   </si>
   <si>
-    <t>聯邦公報</t>
+    <t>联邦公报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:US_research_agencies</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%A7%91%E5%AD%A6%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%A8%99%E6%BA%96%E6%8A%80%E8%A1%93%E7%A0%94%E7%A9%B6%E6%89%80</t>
   </si>
   <si>
-    <t>國家標準技術研究所</t>
+    <t>国家标准技术研究所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E6%B5%B7%E6%B4%8B%E5%92%8C%E5%A4%A7%E6%B0%94%E7%AE%A1%E7%90%86%E5%B1%80</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E9%AB%98%E7%AD%89%E7%A0%94%E7%A9%B6%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>國防高等研究計劃署</t>
+    <t>国防高等研究计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D%E7%A0%94%E7%A9%B6%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>美國海軍研究實驗室</t>
+    <t>美国海军研究实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B%E7%A0%94%E7%A9%B6%E5%AE%9E%E9%AA%8C%E5%AE%A4</t>
@@ -239,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美國教育部</t>
+    <t>美国教育部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8</t>
   </si>
   <si>
-    <t>美國能源部</t>
+    <t>美国能源部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%83%BD%E6%BA%90%E9%83%A8%E5%9B%BD%E5%AE%B6%E5%AE%9E%E9%AA%8C%E5%AE%A4</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國土安全部</t>
+    <t>美国国土安全部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%94%BF%E9%83%A8</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E8%B3%AA%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美國地質調查局</t>
+    <t>美国地质调查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%8B%E8%BC%B8%E9%83%A8</t>
   </si>
   <si>
-    <t>美國運輸部</t>
+    <t>美国运输部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%88%AA%E7%A9%BA%E7%AE%A1%E7%90%86%E5%B1%80</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA%E4%BA%8B%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>美國退伍軍人事務部</t>
+    <t>美国退伍军人事务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AD%A6%E9%99%A2</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
